--- a/jelenleti.xlsx
+++ b/jelenleti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beregszaszi-my.sharepoint.com/personal/boros_sandor_dszcberegszaszi_hu/Documents/2023/14.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="10_ncr:40000_{C6BEE29E-1020-4062-9B4C-D9C590212A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BD80FE5-E3DD-44D9-9AA3-21A6589A7CC0}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="10_ncr:40000_{C6BEE29E-1020-4062-9B4C-D9C590212A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3E3352A-7A83-4837-B55F-EB469FCDA5AD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -552,7 +552,7 @@
   <dimension ref="A1:AC15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,7 +700,9 @@
       <c r="S2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="4"/>
+      <c r="T2" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
@@ -842,7 +844,9 @@
       <c r="S6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="4"/>
+      <c r="T6" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
@@ -1054,7 +1058,9 @@
       <c r="S12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="T12" s="4"/>
+      <c r="T12" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>

--- a/jelenleti.xlsx
+++ b/jelenleti.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beregszaszi-my.sharepoint.com/personal/boros_sandor_dszcberegszaszi_hu/Documents/2023/14.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="10_ncr:40000_{C6BEE29E-1020-4062-9B4C-D9C590212A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3E3352A-7A83-4837-B55F-EB469FCDA5AD}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="10_ncr:40000_{C6BEE29E-1020-4062-9B4C-D9C590212A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40F42AAC-52C0-47B3-A674-1A308A24B5F9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jelenleti" sheetId="1" r:id="rId1"/>
     <sheet name="ülésrend" sheetId="2" r:id="rId2"/>
+    <sheet name="Munka1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -246,10 +247,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,13 +552,13 @@
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="29" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="29" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="78" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="77.400000000000006" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -674,7 +671,7 @@
         <v>45231</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -713,7 +710,7 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -748,7 +745,7 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -783,7 +780,7 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -818,7 +815,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -857,7 +854,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -892,7 +889,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -927,7 +924,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -962,7 +959,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -997,7 +994,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1032,7 +1029,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1071,7 +1068,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1106,7 +1103,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1141,7 +1138,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1195,33 +1192,33 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1230,4 +1227,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA9373F-6369-4E5E-8D69-6F923B525E5A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>